--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Study Assay Technology Type.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Study Assay Technology Type.xlsx
@@ -26,6 +26,108 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>F052A</t>
+  </si>
+  <si>
+    <t>Atomic Absorption spectroscopy and similar spectorscopy (e.g. AAS, F-AAS, HG-AAS etc.).</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>F055A</t>
+  </si>
+  <si>
+    <t>Atomic emission spectroscopy and similar spectroscopy</t>
+  </si>
+  <si>
+    <t>AFS</t>
+  </si>
+  <si>
+    <t>F058A</t>
+  </si>
+  <si>
+    <t>Atomic fluorescence spectrometry</t>
+  </si>
+  <si>
+    <t>Agglutination</t>
+  </si>
+  <si>
+    <t>F082A</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>F066A</t>
+  </si>
+  <si>
+    <t>Accelerator mass spectrometry</t>
+  </si>
+  <si>
+    <t>Anatomic-pathologic standard tests</t>
+  </si>
+  <si>
+    <t>F103A</t>
+  </si>
+  <si>
+    <t>Anatomic-pathologic Tests</t>
+  </si>
+  <si>
+    <t>F102A</t>
+  </si>
+  <si>
+    <t>Animal based tests</t>
+  </si>
+  <si>
+    <t>F112A</t>
+  </si>
+  <si>
+    <t>Biological test</t>
+  </si>
+  <si>
+    <t>F113A</t>
+  </si>
+  <si>
+    <t>CE (or CZE)</t>
+  </si>
+  <si>
+    <t>F071A</t>
+  </si>
+  <si>
+    <t>Capillary (Zone) Electrophoresis</t>
+  </si>
+  <si>
+    <t>Cell based tests</t>
+  </si>
+  <si>
+    <t>F117A</t>
+  </si>
+  <si>
+    <t>Chemical-physical investigations on animals</t>
+  </si>
+  <si>
+    <t>F107A</t>
+  </si>
+  <si>
+    <t>Chromatographic tests</t>
+  </si>
+  <si>
+    <t>F015A</t>
+  </si>
+  <si>
+    <t>Chromatographic tests with main focus on isolation of the analyte and providing qualitatve or semiquantitative results.</t>
+  </si>
+  <si>
+    <t>Chromatography hyphenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>F155A</t>
+  </si>
+  <si>
     <t>Classification not possible</t>
   </si>
   <si>
@@ -35,60 +137,6 @@
     <t>Analytical method  measuring principle is known, but could not be classified.</t>
   </si>
   <si>
-    <t>Organoleptic (sensoric) tests of food</t>
-  </si>
-  <si>
-    <t>F002A</t>
-  </si>
-  <si>
-    <t>Applies to e.g. smelling, tasting, etc.… - not usual for "chemical occurances" as contaminants or pesticde residues.</t>
-  </si>
-  <si>
-    <t>Traditional analytical techniques (wet chemical tests)</t>
-  </si>
-  <si>
-    <t>F003A</t>
-  </si>
-  <si>
-    <t>Applies to e.g. reacting with reagents and measuring the results of the reaction like precipitation or change of colour, etc (does not apply to colorimetry, photometry and spectroscopy).</t>
-  </si>
-  <si>
-    <t>Gravimetric tests</t>
-  </si>
-  <si>
-    <t>F004A</t>
-  </si>
-  <si>
-    <t>Gravimetric analysis which trought the quantitavively measurement of the anayte mass. It determines the amount of material present by weighing the sample before and-or after some transformation e.g. precipitation, drying and ashing.</t>
-  </si>
-  <si>
-    <t>Volumetric tests</t>
-  </si>
-  <si>
-    <t>F005A</t>
-  </si>
-  <si>
-    <t>A reagent (called titrator) of a known concentration (a standard solution) and volume is used to react with a solution of the analyte (called titrand), whose concentration is not known e.g. acidimetry, chelatometry, etc.</t>
-  </si>
-  <si>
-    <t>Physical tests</t>
-  </si>
-  <si>
-    <t>F006A</t>
-  </si>
-  <si>
-    <t>Quantifying an analyte by measuring physical properties i.e. refractometry, densitometry, etc. (does not apply to colorimetry, photometry and spectroscopy).</t>
-  </si>
-  <si>
-    <t>Qualitative tests</t>
-  </si>
-  <si>
-    <t>F007A</t>
-  </si>
-  <si>
-    <t>Tests based on a chemical or enzimatic reaction with reagents and trough the observation of the results of the reaction like precipitation or change of colour, etc. Only approximative quantification is possible.</t>
-  </si>
-  <si>
     <t>Colorimetry, Spectrocopy (Spectrometry) and Photometry</t>
   </si>
   <si>
@@ -98,1288 +146,46 @@
     <t>Identifying and quantifying one or more analytes through the respective spectrum of absorbtion and-or emission. If quantification is the main focus of the method, the term "spectrometry" is widely used.</t>
   </si>
   <si>
-    <t>UV-VIS spectroscopy (photometry)</t>
-  </si>
-  <si>
-    <t>F009A</t>
-  </si>
-  <si>
-    <t>IR and Raman Spectroscopy</t>
-  </si>
-  <si>
-    <t>F010A</t>
-  </si>
-  <si>
-    <t>Fluorimetry, Nephelometry and Polarimetry</t>
-  </si>
-  <si>
-    <t>F011A</t>
-  </si>
-  <si>
-    <t>HPLC-ELSD</t>
-  </si>
-  <si>
-    <t>F0127A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with Evaporative Light Scattering Detection</t>
-  </si>
-  <si>
-    <t>Electrochemical tests</t>
-  </si>
-  <si>
-    <t>F012A</t>
-  </si>
-  <si>
-    <t>Identifying and quantifying an analyte by measuring electrochemical properties.</t>
-  </si>
-  <si>
-    <t>Electrochemical tests based on potentiometry (pH electrodes, ionsensitive electrodes, potentiometry)</t>
-  </si>
-  <si>
-    <t>F013A</t>
-  </si>
-  <si>
-    <t>Potentiometry passively measures the potential of a solution between two electrodes, affecting the solution very little in the process. The potential is then related to the concentration of one or more analytes.</t>
-  </si>
-  <si>
-    <t>Electrochemical tests (voltametry and polarography)</t>
-  </si>
-  <si>
-    <t>F014A</t>
-  </si>
-  <si>
-    <t>Voltammetry applies a constant and-or varying potential at an electrode's surface and measures the resulting current with a three electrode system. Polarometry is a subclass of voltammetry. Amperometry is also a subclass of voltammetry.</t>
-  </si>
-  <si>
-    <t>Chromatographic tests</t>
-  </si>
-  <si>
-    <t>F015A</t>
-  </si>
-  <si>
-    <t>Chromatographic tests with main focus on isolation of the analyte and providing qualitatve or semiquantitative results.</t>
-  </si>
-  <si>
-    <t>Standard Chromatographic tests (paper-, thin layer- and column chromatography)</t>
-  </si>
-  <si>
-    <t>F016A</t>
-  </si>
-  <si>
-    <t>Applies to e.g. TLC</t>
-  </si>
-  <si>
-    <t>Gelpermeation, High Performance Thin Layer Chromatography (HPTLC)</t>
-  </si>
-  <si>
-    <t>F017A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography (HPLC)-Liquid Chromatography (LC)</t>
-  </si>
-  <si>
-    <t>F018A</t>
-  </si>
-  <si>
-    <t>High Performance, High Pressure and Liquid Chromatography.</t>
-  </si>
-  <si>
-    <t>HPLC with standard detection methods</t>
-  </si>
-  <si>
-    <t>F019A</t>
-  </si>
-  <si>
-    <t>HPLC-RI</t>
-  </si>
-  <si>
-    <t>F020A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with Refractive Index Detection</t>
-  </si>
-  <si>
-    <t>HPLC-UV</t>
-  </si>
-  <si>
-    <t>F021A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with UV Detection</t>
-  </si>
-  <si>
-    <t>HPLC-FD</t>
-  </si>
-  <si>
-    <t>F022A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with Fluorescent Detection</t>
-  </si>
-  <si>
-    <t>HPLC-ECD</t>
-  </si>
-  <si>
-    <t>F023A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with Electrochemical detection</t>
-  </si>
-  <si>
-    <t>HPLC-Electrical Conductivity Detector</t>
-  </si>
-  <si>
-    <t>F024A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid with Electrical Conductivity Detector</t>
-  </si>
-  <si>
-    <t>HPLC-LC hyphenated methods</t>
-  </si>
-  <si>
-    <t>F025A</t>
-  </si>
-  <si>
-    <t>HPLC-LC highphenated to element spectroscopy (HPLC-ICPMS, HPLC-Decomposition-HG-AAS, HPLC-Decomposition-HG-AFS, HPLC-HG-ICPMS, HPLC-ESMS, HPLC,HG-AFS, HPLC-HG-AAS, etc.).</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>F026A</t>
-  </si>
-  <si>
-    <t>Liquid Chromography Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-MS-MS</t>
-  </si>
-  <si>
-    <t>F027A</t>
-  </si>
-  <si>
-    <t>Liquid Chromography Tandem Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-MS (quadrupole)</t>
-  </si>
-  <si>
-    <t>F028A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography Single Quadrupole Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-ICP-MS</t>
-  </si>
-  <si>
-    <t>F029A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography inductively coupled plasma mass spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-Decomposition-HGAAS</t>
-  </si>
-  <si>
-    <t>F030A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography-decomposition-hydride generation atomic absorption spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-Decomposition-HGAFS</t>
-  </si>
-  <si>
-    <t>F031A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography-Decomposition-Hydride Generation Atomic Fluorescence Spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-HG-ICP-MS</t>
-  </si>
-  <si>
-    <t>F032A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography hydride generation inductively coupled plasma mass spectrometry</t>
-  </si>
-  <si>
-    <t>LC-MS-MS (QqQ)</t>
-  </si>
-  <si>
-    <t>F034A</t>
-  </si>
-  <si>
-    <t>Liquid Chromography Tandem Quadrupole Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-HG-AFS</t>
-  </si>
-  <si>
-    <t>F035A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography hydride generation atomic fluorescence  spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-CF</t>
-  </si>
-  <si>
-    <t>F036A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography coupled to continuous-flow</t>
-  </si>
-  <si>
-    <t>Gaschromatography (GC)</t>
-  </si>
-  <si>
-    <t>F037A</t>
-  </si>
-  <si>
-    <t>GC with standard detection methods</t>
-  </si>
-  <si>
-    <t>F038A</t>
-  </si>
-  <si>
-    <t>Standard detector equipment of GC, identification of the analyte is possible comparing the retention time with a standard, quantification can be done using the detector signal (e.g. GC-FID, GC-ECD, GC-NPD, GC-ELCD, GC-FPD, etc.).</t>
-  </si>
-  <si>
-    <t>GC-ECD</t>
-  </si>
-  <si>
-    <t>F039A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with electron capture detection</t>
-  </si>
-  <si>
-    <t>GC-FID</t>
-  </si>
-  <si>
-    <t>F040A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with flame ionization detection</t>
-  </si>
-  <si>
-    <t>GC-NPD (TID)</t>
-  </si>
-  <si>
-    <t>F041A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with nitrogen-phosphorus sensitive detection (thermionic ionization detection)</t>
-  </si>
-  <si>
-    <t>GC hyphenated methods</t>
-  </si>
-  <si>
-    <t>F042A</t>
-  </si>
-  <si>
-    <t>GC coupled with special detectors, mostly multichanel detectors (e.g. GC-MS, GC-MS-MS, HG-(CT)GC-AAS, HG-(CT)GC-AFS, GC-ITD,GC-MS, GC-HRMS, etc.).</t>
-  </si>
-  <si>
-    <t>HG-(CT)GC-AAS</t>
-  </si>
-  <si>
-    <t>F043A</t>
-  </si>
-  <si>
-    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Atomic Absorption Spectrometry</t>
-  </si>
-  <si>
-    <t>HG-(CT)GC-AFS</t>
-  </si>
-  <si>
-    <t>F044A</t>
-  </si>
-  <si>
-    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Atomic Fluorescence Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-ITMS</t>
-  </si>
-  <si>
-    <t>F045A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with ion trap mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-MS</t>
-  </si>
-  <si>
-    <t>F046A</t>
-  </si>
-  <si>
-    <t>Gas chromatography Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-HRMS</t>
-  </si>
-  <si>
-    <t>F047A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with high resolution mass spectrometric detection</t>
-  </si>
-  <si>
-    <t>HRGC-HRMS</t>
-  </si>
-  <si>
-    <t>F048A</t>
-  </si>
-  <si>
-    <t>High Resolution Gas chromatography High Resolution Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-MS-MS</t>
-  </si>
-  <si>
-    <t>F049A</t>
-  </si>
-  <si>
-    <t>Gas chromatography tandem mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-(P)FPD</t>
-  </si>
-  <si>
-    <t>F050A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with (pulsed) flame photometric detection</t>
-  </si>
-  <si>
-    <t>Element spectroscopy</t>
-  </si>
-  <si>
-    <t>F051A</t>
-  </si>
-  <si>
-    <t>Element spectroscopy (AAS, AES, AFS, ICP-MS)</t>
-  </si>
-  <si>
-    <t>AAS</t>
-  </si>
-  <si>
-    <t>F052A</t>
-  </si>
-  <si>
-    <t>Atomic Absorption spectroscopy and similar spectorscopy (e.g. AAS, F-AAS, HG-AAS etc.).</t>
-  </si>
-  <si>
-    <t>HGAAS</t>
-  </si>
-  <si>
-    <t>F053A</t>
-  </si>
-  <si>
-    <t>hydride generation atomic absorption spectrometry</t>
-  </si>
-  <si>
-    <t>ETAAS (GFAAS)</t>
-  </si>
-  <si>
-    <t>F054A</t>
-  </si>
-  <si>
-    <t>Electrothermal atomic absorption spectrometry (Graphite furnance atomic absorption spectrometry)</t>
-  </si>
-  <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>F055A</t>
-  </si>
-  <si>
-    <t>Atomic emission spectroscopy and similar spectroscopy</t>
-  </si>
-  <si>
-    <t>HG-ICP-AES</t>
-  </si>
-  <si>
-    <t>F056A</t>
-  </si>
-  <si>
-    <t>hydride generation inductively coupled plasma atomic emission spectrometry</t>
-  </si>
-  <si>
-    <t>ICP-AES</t>
-  </si>
-  <si>
-    <t>F057A</t>
-  </si>
-  <si>
-    <t>Inductively coupled plasma atomic emission spectroscopy</t>
-  </si>
-  <si>
-    <t>AFS</t>
-  </si>
-  <si>
-    <t>F058A</t>
-  </si>
-  <si>
-    <t>Atomic fluorescence spectrometry</t>
-  </si>
-  <si>
-    <t>HG-AFS</t>
-  </si>
-  <si>
-    <t>F059A</t>
-  </si>
-  <si>
-    <t>Hydride generation atomic fluorescence spectrometry</t>
-  </si>
-  <si>
-    <t>Nuclear Magnetic Resonance (NMR) and Electron Spin Resonance (ESR) spectroscopy</t>
-  </si>
-  <si>
-    <t>F060A</t>
-  </si>
-  <si>
-    <t>Nuclear Magnetic Resonance (NMR)</t>
-  </si>
-  <si>
-    <t>F061A</t>
-  </si>
-  <si>
-    <t>Electron Spin Resonance (ESR) spectroscopy</t>
-  </si>
-  <si>
-    <t>F062A</t>
-  </si>
-  <si>
-    <t>Mass Spectroscopy and hyphenated methods without chromatography</t>
-  </si>
-  <si>
-    <t>F063A</t>
-  </si>
-  <si>
-    <t>ICP-MS</t>
-  </si>
-  <si>
-    <t>F064A</t>
-  </si>
-  <si>
-    <t>Inductively coupled plasma mass spectrometry</t>
-  </si>
-  <si>
-    <t>MALDI-TOFMS</t>
-  </si>
-  <si>
-    <t>F065A</t>
-  </si>
-  <si>
-    <t>Matrix-assisted laser desorption ionization time-of-flight mass spectrometry</t>
-  </si>
-  <si>
-    <t>AMS</t>
-  </si>
-  <si>
-    <t>F066A</t>
-  </si>
-  <si>
-    <t>Accelerator mass spectrometry</t>
-  </si>
-  <si>
-    <t>TIMS</t>
-  </si>
-  <si>
-    <t>F067A</t>
-  </si>
-  <si>
-    <t>Thermal ionization-mass spectrometry</t>
-  </si>
-  <si>
-    <t>SSMS</t>
-  </si>
-  <si>
-    <t>F068A</t>
-  </si>
-  <si>
-    <t>Spark source mass spectrometry</t>
-  </si>
-  <si>
-    <t>Enzymatic tests</t>
-  </si>
-  <si>
-    <t>F069A</t>
-  </si>
-  <si>
-    <t>Electrophoretical tests</t>
-  </si>
-  <si>
-    <t>F070A</t>
-  </si>
-  <si>
-    <t>CE (or CZE)</t>
-  </si>
-  <si>
-    <t>F071A</t>
-  </si>
-  <si>
-    <t>Capillary (Zone) Electrophoresis</t>
-  </si>
-  <si>
-    <t>Western blot</t>
-  </si>
-  <si>
-    <t>F072A</t>
-  </si>
-  <si>
-    <t>for protein detection</t>
-  </si>
-  <si>
-    <t>Eastern blotting</t>
-  </si>
-  <si>
-    <t>F073A</t>
-  </si>
-  <si>
-    <t>for detection of protein after post translational modifications</t>
-  </si>
-  <si>
-    <t>Northern blot</t>
-  </si>
-  <si>
-    <t>F074A</t>
-  </si>
-  <si>
-    <t>for RNA detection</t>
-  </si>
-  <si>
-    <t>Southwestern blotting</t>
-  </si>
-  <si>
-    <t>F075A</t>
-  </si>
-  <si>
-    <t>for detection of DNA-binding proteins</t>
-  </si>
-  <si>
-    <t>Gel electrophoresis</t>
-  </si>
-  <si>
-    <t>F076A</t>
-  </si>
-  <si>
-    <t>for DNA or RNA detection</t>
-  </si>
-  <si>
-    <t>Immunochemical tests</t>
-  </si>
-  <si>
-    <t>F077A</t>
-  </si>
-  <si>
-    <t>Applies to e.g. immunoelectrophoresis</t>
-  </si>
-  <si>
-    <t>RIA</t>
-  </si>
-  <si>
-    <t>F078A</t>
-  </si>
-  <si>
-    <t>Radio Immunoassay Tests</t>
-  </si>
-  <si>
-    <t>EIA</t>
-  </si>
-  <si>
-    <t>F079A</t>
-  </si>
-  <si>
-    <t>Enzyme Immunoassay Tests</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>F080A</t>
-  </si>
-  <si>
-    <t>Enzyme-linked immunosorbent assay</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>F081A</t>
-  </si>
-  <si>
-    <t>Magnetic Immunoassay Tests</t>
-  </si>
-  <si>
-    <t>Agglutination</t>
-  </si>
-  <si>
-    <t>F082A</t>
-  </si>
-  <si>
-    <t>Nephelometry</t>
-  </si>
-  <si>
-    <t>F083A</t>
-  </si>
-  <si>
-    <t>Lateral flow tests</t>
-  </si>
-  <si>
-    <t>F084A</t>
-  </si>
-  <si>
-    <t>Molecular biological tests</t>
-  </si>
-  <si>
-    <t>F085A</t>
-  </si>
-  <si>
-    <t>PCR</t>
-  </si>
-  <si>
-    <t>F086A</t>
-  </si>
-  <si>
-    <t>polymerase chain reaction</t>
-  </si>
-  <si>
-    <t>QPCR</t>
-  </si>
-  <si>
-    <t>F087A</t>
-  </si>
-  <si>
-    <t>real time polymerase chain reaction used for DNA quantification</t>
-  </si>
-  <si>
-    <t>PCR-ELISA</t>
-  </si>
-  <si>
-    <t>F088A</t>
-  </si>
-  <si>
-    <t>polymerase chain reaction coupled to ELISA detection</t>
-  </si>
-  <si>
-    <t>DNA sequencing</t>
-  </si>
-  <si>
-    <t>F089A</t>
-  </si>
-  <si>
-    <t>Radiochemical tests</t>
-  </si>
-  <si>
-    <t>F091A</t>
-  </si>
-  <si>
-    <t>Radioactivity based tests</t>
-  </si>
-  <si>
-    <t>F093A</t>
-  </si>
-  <si>
-    <t>Tests based on radioactivity and spectroscopy</t>
-  </si>
-  <si>
-    <t>Luminescense based tests</t>
-  </si>
-  <si>
-    <t>F094A</t>
-  </si>
-  <si>
-    <t>Tests based on luminescense measurements</t>
-  </si>
-  <si>
-    <t>Microscopical and histometrical tests</t>
-  </si>
-  <si>
-    <t>F095A</t>
-  </si>
-  <si>
-    <t>Electron microscopical tests</t>
-  </si>
-  <si>
-    <t>F096A</t>
-  </si>
-  <si>
-    <t>Histometrical standard tests</t>
-  </si>
-  <si>
-    <t>F097A</t>
-  </si>
-  <si>
-    <t>Special tests</t>
-  </si>
-  <si>
-    <t>F098A</t>
-  </si>
-  <si>
-    <t>Microbiological tests</t>
-  </si>
-  <si>
-    <t>F099A</t>
-  </si>
-  <si>
-    <t>Microbiological special tests</t>
-  </si>
-  <si>
-    <t>F101A</t>
-  </si>
-  <si>
-    <t>Applies to e.g. Keimdiff, Salm test, etc.</t>
-  </si>
-  <si>
-    <t>Anatomic-pathologic Tests</t>
-  </si>
-  <si>
-    <t>F102A</t>
-  </si>
-  <si>
-    <t>Anatomic-pathologic standard tests</t>
-  </si>
-  <si>
-    <t>F103A</t>
-  </si>
-  <si>
-    <t>Chemical-physical investigations on animals</t>
-  </si>
-  <si>
-    <t>F107A</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
-    <t>F108A</t>
-  </si>
-  <si>
-    <t>Mouse bioassay</t>
-  </si>
-  <si>
-    <t>RBA</t>
-  </si>
-  <si>
-    <t>F110A</t>
-  </si>
-  <si>
-    <t>Rat bioassay</t>
-  </si>
-  <si>
-    <t>Animal based tests</t>
-  </si>
-  <si>
-    <t>F112A</t>
-  </si>
-  <si>
-    <t>Biological test</t>
-  </si>
-  <si>
-    <t>F113A</t>
-  </si>
-  <si>
-    <t>PP2A</t>
-  </si>
-  <si>
-    <t>F114A</t>
-  </si>
-  <si>
-    <t>Protein phosphatase inhibition test</t>
+    <t>Coproantigen ELISA</t>
+  </si>
+  <si>
+    <t>F183A</t>
+  </si>
+  <si>
+    <t>Deplazes P, Alther P, Tanner I, Thompson RCA, Eckert J, 1999.</t>
+  </si>
+  <si>
+    <t>CVAAS</t>
+  </si>
+  <si>
+    <t>F151A</t>
+  </si>
+  <si>
+    <t>Cold vapour atomic absorption spectrometry</t>
+  </si>
+  <si>
+    <t>CVAFS</t>
+  </si>
+  <si>
+    <t>F152A</t>
+  </si>
+  <si>
+    <t>Cold vapour atomic fluorescence spectrometry</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>F175A</t>
+  </si>
+  <si>
+    <t>Dynamic headspace extraction</t>
   </si>
   <si>
     <t>DNA based tests</t>
   </si>
   <si>
     <t>F115A</t>
-  </si>
-  <si>
-    <t>Receptor based tests</t>
-  </si>
-  <si>
-    <t>F116A</t>
-  </si>
-  <si>
-    <t>Cell based tests</t>
-  </si>
-  <si>
-    <t>F117A</t>
-  </si>
-  <si>
-    <t>HNA</t>
-  </si>
-  <si>
-    <t>F118A</t>
-  </si>
-  <si>
-    <t>Hemolysis Neutralisation assay</t>
-  </si>
-  <si>
-    <t>SPR-biosensor</t>
-  </si>
-  <si>
-    <t>F119A</t>
-  </si>
-  <si>
-    <t>Surface plasmon resonance</t>
-  </si>
-  <si>
-    <t>Morphological identification</t>
-  </si>
-  <si>
-    <t>F120A</t>
-  </si>
-  <si>
-    <t>Morphological identification for insect samples</t>
-  </si>
-  <si>
-    <t>Indirect Immunofluorescent Antibody test (IFAT)</t>
-  </si>
-  <si>
-    <t>F121A</t>
-  </si>
-  <si>
-    <t>A form of fluorescent antibody technique using antigen-antibody complex labeled with flourescein-conjugated anti-immunoglobulin antibody</t>
-  </si>
-  <si>
-    <t>Turbidimetry</t>
-  </si>
-  <si>
-    <t>F122A</t>
-  </si>
-  <si>
-    <t>A method for determining the concentration of a substance in a solution by measuring the loss in intensity of a light beam through a solution that contains suspended particulate matter.</t>
-  </si>
-  <si>
-    <t>HPLC-CAD</t>
-  </si>
-  <si>
-    <t>F128A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography with Corona Discharge Detection</t>
-  </si>
-  <si>
-    <t>LC-HR-MS</t>
-  </si>
-  <si>
-    <t>F129A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with High Resolution Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-LR-MS</t>
-  </si>
-  <si>
-    <t>F130A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with Low Resolution Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-ITMS</t>
-  </si>
-  <si>
-    <t>F131A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with Ion Trap Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-orbitrap-MS</t>
-  </si>
-  <si>
-    <t>F133A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with orbitrap detection</t>
-  </si>
-  <si>
-    <t>LC-TOF-MS</t>
-  </si>
-  <si>
-    <t>F134A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with Time-of-Flight Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-Q-Trap-MS</t>
-  </si>
-  <si>
-    <t>F136A</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography with Quadrupole-Linear-Ion-Tap Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>LC-QTOF-MS</t>
-  </si>
-  <si>
-    <t>F137A</t>
-  </si>
-  <si>
-    <t>Liquid Chromography Quadrupole-Time-of-Flight Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-SCD</t>
-  </si>
-  <si>
-    <t>F140A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with sulfur chemiluminiscence detection</t>
-  </si>
-  <si>
-    <t>GC-ELCD</t>
-  </si>
-  <si>
-    <t>F141A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with electrolytic conductivity detection</t>
-  </si>
-  <si>
-    <t>GC-TCD</t>
-  </si>
-  <si>
-    <t>F142A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with thermal conductivity detection</t>
-  </si>
-  <si>
-    <t>GC-LR-MS</t>
-  </si>
-  <si>
-    <t>F143A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with low resolution mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-MS (Q)</t>
-  </si>
-  <si>
-    <t>F144A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with single quadrupole mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-LR-TOFMS</t>
-  </si>
-  <si>
-    <t>F145A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with low resolution time-of-flight mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-HRMS (magnetic sector)</t>
-  </si>
-  <si>
-    <t>F146A</t>
-  </si>
-  <si>
-    <t>Gas chromatography hyphenated to a high resolution magnetic sector mass spectrometer</t>
-  </si>
-  <si>
-    <t>GC-HR-TOF-MS</t>
-  </si>
-  <si>
-    <t>F147A</t>
-  </si>
-  <si>
-    <t>Gas chromatography with high resolution time-of-flight mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-QqQ-MS-MS</t>
-  </si>
-  <si>
-    <t>F148A</t>
-  </si>
-  <si>
-    <t>Gas chromatography tandem quadrupole mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC-QTOF-MS</t>
-  </si>
-  <si>
-    <t>F149A</t>
-  </si>
-  <si>
-    <t>Gas Chromography Quadrupole-Time-of-Flight Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>FAAS</t>
-  </si>
-  <si>
-    <t>F150A</t>
-  </si>
-  <si>
-    <t>Flame atomic absorption spectrometry</t>
-  </si>
-  <si>
-    <t>CVAAS</t>
-  </si>
-  <si>
-    <t>F151A</t>
-  </si>
-  <si>
-    <t>Cold vapour atomic absorption spectrometry</t>
-  </si>
-  <si>
-    <t>CVAFS</t>
-  </si>
-  <si>
-    <t>F152A</t>
-  </si>
-  <si>
-    <t>Cold vapour atomic fluorescence spectrometry</t>
-  </si>
-  <si>
-    <t>ICP-LR-MS</t>
-  </si>
-  <si>
-    <t>F153A</t>
-  </si>
-  <si>
-    <t>Idcutively coupled plasma low resolution mass spectrometry</t>
-  </si>
-  <si>
-    <t>ICP-HR-MS</t>
-  </si>
-  <si>
-    <t>F154A</t>
-  </si>
-  <si>
-    <t>Idcutively coupled plasma high resolution mass spectrometry</t>
-  </si>
-  <si>
-    <t>Chromatography hyphenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>F155A</t>
-  </si>
-  <si>
-    <t>HPLC hypenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>F156A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography hypenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-HG-ETAAS</t>
-  </si>
-  <si>
-    <t>F157A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography hydride generation electrothermal atomic absorption spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-ICP-AES</t>
-  </si>
-  <si>
-    <t>F158A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography inductively coupled plasma atomic emission spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-HG-ICP-AES</t>
-  </si>
-  <si>
-    <t>F159A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography hydride generation inductively coupled plasma atomic emission spectrometry</t>
-  </si>
-  <si>
-    <t>HPLC-Decomp-HG-ICP-MS</t>
-  </si>
-  <si>
-    <t>F160A</t>
-  </si>
-  <si>
-    <t>High performance liquid chromatography-decomposition-hydride generation inductively coupled plasma mass spectrometry</t>
-  </si>
-  <si>
-    <t>GC hypenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>F161A</t>
-  </si>
-  <si>
-    <t>Gas chromatography hypenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>HG-(CT)GC-ICP-MS</t>
-  </si>
-  <si>
-    <t>F162A</t>
-  </si>
-  <si>
-    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-AAS</t>
-  </si>
-  <si>
-    <t>F163A</t>
-  </si>
-  <si>
-    <t>Gas Chromatography Atomic Absorption Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-AFS</t>
-  </si>
-  <si>
-    <t>F164A</t>
-  </si>
-  <si>
-    <t>Gas Chromatography Atomic Fluorescence Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-AES</t>
-  </si>
-  <si>
-    <t>F165A</t>
-  </si>
-  <si>
-    <t>Gas Chromatography Atomic Emission Spectrometry</t>
-  </si>
-  <si>
-    <t>GC-ICP-MS</t>
-  </si>
-  <si>
-    <t>F166A</t>
-  </si>
-  <si>
-    <t>Gas Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>IC hyphenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>F167A</t>
-  </si>
-  <si>
-    <t>Ion chromatography hypenated to element spectrometry</t>
-  </si>
-  <si>
-    <t>IC-ICP-MS</t>
-  </si>
-  <si>
-    <t>F168A</t>
-  </si>
-  <si>
-    <t>Ion Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>IC-AAS</t>
-  </si>
-  <si>
-    <t>F169A</t>
-  </si>
-  <si>
-    <t>Ion chromatography Atomic Absorption Spectrometry</t>
-  </si>
-  <si>
-    <t>IC-HG-AFS</t>
-  </si>
-  <si>
-    <t>F170A</t>
-  </si>
-  <si>
-    <t>Ion Chromatography Hydride Generation Atomic Fluorescence Spectrometry</t>
-  </si>
-  <si>
-    <t>Sample introduction</t>
-  </si>
-  <si>
-    <t>F172A</t>
-  </si>
-  <si>
-    <t>liquid injection</t>
-  </si>
-  <si>
-    <t>F173A</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>F174A</t>
-  </si>
-  <si>
-    <t>Static headspace extraction</t>
-  </si>
-  <si>
-    <t>DHS</t>
-  </si>
-  <si>
-    <t>F175A</t>
-  </si>
-  <si>
-    <t>Dynamic headspace extraction</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>F176A</t>
-  </si>
-  <si>
-    <t>Thermo desorption</t>
-  </si>
-  <si>
-    <t>SPME</t>
-  </si>
-  <si>
-    <t>F177A</t>
-  </si>
-  <si>
-    <t>solid phase micro extraction</t>
-  </si>
-  <si>
-    <t>HS-SPME</t>
-  </si>
-  <si>
-    <t>F178A</t>
-  </si>
-  <si>
-    <t>head space - solid phase micro extraction</t>
-  </si>
-  <si>
-    <t>SBS</t>
-  </si>
-  <si>
-    <t>F179A</t>
-  </si>
-  <si>
-    <t>Stir bar sorpitive extraction</t>
-  </si>
-  <si>
-    <t>HPLC-ESI-MS</t>
-  </si>
-  <si>
-    <t>F033A</t>
-  </si>
-  <si>
-    <t>High Performance Liquid Chromatography Electrospray (ionisation) Mass Spectrometry</t>
   </si>
   <si>
     <t>DNA hybridization</t>
@@ -1392,6 +198,936 @@
 </t>
   </si>
   <si>
+    <t>DNA sequencing</t>
+  </si>
+  <si>
+    <t>F089A</t>
+  </si>
+  <si>
+    <t>Eastern blotting</t>
+  </si>
+  <si>
+    <t>F073A</t>
+  </si>
+  <si>
+    <t>for detection of protein after post translational modifications</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>F079A</t>
+  </si>
+  <si>
+    <t>Enzyme Immunoassay Tests</t>
+  </si>
+  <si>
+    <t>Electrochemical tests</t>
+  </si>
+  <si>
+    <t>F012A</t>
+  </si>
+  <si>
+    <t>Identifying and quantifying an analyte by measuring electrochemical properties.</t>
+  </si>
+  <si>
+    <t>Electrochemical tests (voltametry and polarography)</t>
+  </si>
+  <si>
+    <t>F014A</t>
+  </si>
+  <si>
+    <t>Voltammetry applies a constant and-or varying potential at an electrode's surface and measures the resulting current with a three electrode system. Polarometry is a subclass of voltammetry. Amperometry is also a subclass of voltammetry.</t>
+  </si>
+  <si>
+    <t>Electrochemical tests based on potentiometry (pH electrodes, ionsensitive electrodes, potentiometry)</t>
+  </si>
+  <si>
+    <t>F013A</t>
+  </si>
+  <si>
+    <t>Potentiometry passively measures the potential of a solution between two electrodes, affecting the solution very little in the process. The potential is then related to the concentration of one or more analytes.</t>
+  </si>
+  <si>
+    <t>Electron microscopical tests</t>
+  </si>
+  <si>
+    <t>F096A</t>
+  </si>
+  <si>
+    <t>Electron Spin Resonance (ESR) spectroscopy</t>
+  </si>
+  <si>
+    <t>F062A</t>
+  </si>
+  <si>
+    <t>Electrophoretical tests</t>
+  </si>
+  <si>
+    <t>F070A</t>
+  </si>
+  <si>
+    <t>Element spectroscopy</t>
+  </si>
+  <si>
+    <t>F051A</t>
+  </si>
+  <si>
+    <t>Element spectroscopy (AAS, AES, AFS, ICP-MS)</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>F080A</t>
+  </si>
+  <si>
+    <t>Enzyme-linked immunosorbent assay</t>
+  </si>
+  <si>
+    <t>Enzymatic tests</t>
+  </si>
+  <si>
+    <t>F069A</t>
+  </si>
+  <si>
+    <t>ETAAS (GFAAS)</t>
+  </si>
+  <si>
+    <t>F054A</t>
+  </si>
+  <si>
+    <t>Electrothermal atomic absorption spectrometry (Graphite furnance atomic absorption spectrometry)</t>
+  </si>
+  <si>
+    <t>FAAS</t>
+  </si>
+  <si>
+    <t>F150A</t>
+  </si>
+  <si>
+    <t>Flame atomic absorption spectrometry</t>
+  </si>
+  <si>
+    <t>Fluorimetry, Nephelometry and Polarimetry</t>
+  </si>
+  <si>
+    <t>F011A</t>
+  </si>
+  <si>
+    <t>Gaschromatography (GC)</t>
+  </si>
+  <si>
+    <t>F037A</t>
+  </si>
+  <si>
+    <t>GC hypenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>F161A</t>
+  </si>
+  <si>
+    <t>Gas chromatography hypenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>GC hyphenated methods</t>
+  </si>
+  <si>
+    <t>F042A</t>
+  </si>
+  <si>
+    <t>GC coupled with special detectors, mostly multichanel detectors (e.g. GC-MS, GC-MS-MS, HG-(CT)GC-AAS, HG-(CT)GC-AFS, GC-ITD,GC-MS, GC-HRMS, etc.).</t>
+  </si>
+  <si>
+    <t>GC with standard detection methods</t>
+  </si>
+  <si>
+    <t>F038A</t>
+  </si>
+  <si>
+    <t>Standard detector equipment of GC, identification of the analyte is possible comparing the retention time with a standard, quantification can be done using the detector signal (e.g. GC-FID, GC-ECD, GC-NPD, GC-ELCD, GC-FPD, etc.).</t>
+  </si>
+  <si>
+    <t>GC-(P)FPD</t>
+  </si>
+  <si>
+    <t>F050A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with (pulsed) flame photometric detection</t>
+  </si>
+  <si>
+    <t>GC-AAS</t>
+  </si>
+  <si>
+    <t>F163A</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Atomic Absorption Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-AES</t>
+  </si>
+  <si>
+    <t>F165A</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Atomic Emission Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-AFS</t>
+  </si>
+  <si>
+    <t>F164A</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Atomic Fluorescence Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-ECD</t>
+  </si>
+  <si>
+    <t>F039A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with electron capture detection</t>
+  </si>
+  <si>
+    <t>GC-ELCD</t>
+  </si>
+  <si>
+    <t>F141A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with electrolytic conductivity detection</t>
+  </si>
+  <si>
+    <t>GC-FID</t>
+  </si>
+  <si>
+    <t>F040A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with flame ionization detection</t>
+  </si>
+  <si>
+    <t>GC-HR-TOF-MS</t>
+  </si>
+  <si>
+    <t>F147A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with high resolution time-of-flight mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-HRMS</t>
+  </si>
+  <si>
+    <t>F047A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with high resolution mass spectrometric detection</t>
+  </si>
+  <si>
+    <t>GC-HRMS (magnetic sector)</t>
+  </si>
+  <si>
+    <t>F146A</t>
+  </si>
+  <si>
+    <t>Gas chromatography hyphenated to a high resolution magnetic sector mass spectrometer</t>
+  </si>
+  <si>
+    <t>GC-ICP-MS</t>
+  </si>
+  <si>
+    <t>F166A</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-ITMS</t>
+  </si>
+  <si>
+    <t>F045A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with ion trap mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-LR-MS</t>
+  </si>
+  <si>
+    <t>F143A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with low resolution mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-LR-TOFMS</t>
+  </si>
+  <si>
+    <t>F145A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with low resolution time-of-flight mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-MS</t>
+  </si>
+  <si>
+    <t>F046A</t>
+  </si>
+  <si>
+    <t>Gas chromatography Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-MS (Q)</t>
+  </si>
+  <si>
+    <t>F144A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with single quadrupole mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-MS-MS</t>
+  </si>
+  <si>
+    <t>F049A</t>
+  </si>
+  <si>
+    <t>Gas chromatography tandem mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-NPD (TID)</t>
+  </si>
+  <si>
+    <t>F041A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with nitrogen-phosphorus sensitive detection (thermionic ionization detection)</t>
+  </si>
+  <si>
+    <t>GC-QqQ-MS-MS</t>
+  </si>
+  <si>
+    <t>F148A</t>
+  </si>
+  <si>
+    <t>Gas chromatography tandem quadrupole mass spectrometry</t>
+  </si>
+  <si>
+    <t>GC-QTOF-MS</t>
+  </si>
+  <si>
+    <t>F149A</t>
+  </si>
+  <si>
+    <t>Gas Chromography Quadrupole-Time-of-Flight Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>GC-SCD</t>
+  </si>
+  <si>
+    <t>F140A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with sulfur chemiluminiscence detection</t>
+  </si>
+  <si>
+    <t>GC-TCD</t>
+  </si>
+  <si>
+    <t>F142A</t>
+  </si>
+  <si>
+    <t>Gas chromatography with thermal conductivity detection</t>
+  </si>
+  <si>
+    <t>Gel electrophoresis</t>
+  </si>
+  <si>
+    <t>F076A</t>
+  </si>
+  <si>
+    <t>for DNA or RNA detection</t>
+  </si>
+  <si>
+    <t>Gelpermeation, High Performance Thin Layer Chromatography (HPTLC)</t>
+  </si>
+  <si>
+    <t>F017A</t>
+  </si>
+  <si>
+    <t>Gravimetric tests</t>
+  </si>
+  <si>
+    <t>F004A</t>
+  </si>
+  <si>
+    <t>Gravimetric analysis which trought the quantitavively measurement of the anayte mass. It determines the amount of material present by weighing the sample before and-or after some transformation e.g. precipitation, drying and ashing.</t>
+  </si>
+  <si>
+    <t>HG-(CT)GC-AAS</t>
+  </si>
+  <si>
+    <t>F043A</t>
+  </si>
+  <si>
+    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Atomic Absorption Spectrometry</t>
+  </si>
+  <si>
+    <t>HG-(CT)GC-AFS</t>
+  </si>
+  <si>
+    <t>F044A</t>
+  </si>
+  <si>
+    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Atomic Fluorescence Spectrometry</t>
+  </si>
+  <si>
+    <t>HG-(CT)GC-ICP-MS</t>
+  </si>
+  <si>
+    <t>F162A</t>
+  </si>
+  <si>
+    <t>Hydride generation (Cold trapping or cryogenic trapping) Gas Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>HG-AFS</t>
+  </si>
+  <si>
+    <t>F059A</t>
+  </si>
+  <si>
+    <t>Hydride generation atomic fluorescence spectrometry</t>
+  </si>
+  <si>
+    <t>HG-ICP-AES</t>
+  </si>
+  <si>
+    <t>F056A</t>
+  </si>
+  <si>
+    <t>hydride generation inductively coupled plasma atomic emission spectrometry</t>
+  </si>
+  <si>
+    <t>HGAAS</t>
+  </si>
+  <si>
+    <t>F053A</t>
+  </si>
+  <si>
+    <t>hydride generation atomic absorption spectrometry</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography (HPLC)-Liquid Chromatography (LC)</t>
+  </si>
+  <si>
+    <t>F018A</t>
+  </si>
+  <si>
+    <t>High Performance, High Pressure and Liquid Chromatography.</t>
+  </si>
+  <si>
+    <t>Histometrical standard tests</t>
+  </si>
+  <si>
+    <t>F097A</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>F118A</t>
+  </si>
+  <si>
+    <t>Hemolysis Neutralisation assay</t>
+  </si>
+  <si>
+    <t>HPLC hypenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>F156A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography hypenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC with standard detection methods</t>
+  </si>
+  <si>
+    <t>F019A</t>
+  </si>
+  <si>
+    <t>HPLC-CAD</t>
+  </si>
+  <si>
+    <t>F128A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with Corona Discharge Detection</t>
+  </si>
+  <si>
+    <t>HPLC-CF</t>
+  </si>
+  <si>
+    <t>F036A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography coupled to continuous-flow</t>
+  </si>
+  <si>
+    <t>HPLC-Decomp-HG-ICP-MS</t>
+  </si>
+  <si>
+    <t>F160A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography-decomposition-hydride generation inductively coupled plasma mass spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-Decomposition-HGAAS</t>
+  </si>
+  <si>
+    <t>F030A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography-decomposition-hydride generation atomic absorption spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-Decomposition-HGAFS</t>
+  </si>
+  <si>
+    <t>F031A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography-Decomposition-Hydride Generation Atomic Fluorescence Spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-ECD</t>
+  </si>
+  <si>
+    <t>F023A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with Electrochemical detection</t>
+  </si>
+  <si>
+    <t>HPLC-Electrical Conductivity Detector</t>
+  </si>
+  <si>
+    <t>F024A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid with Electrical Conductivity Detector</t>
+  </si>
+  <si>
+    <t>HPLC-ELSD</t>
+  </si>
+  <si>
+    <t>F0127A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with Evaporative Light Scattering Detection</t>
+  </si>
+  <si>
+    <t>HPLC-ESI-MS</t>
+  </si>
+  <si>
+    <t>F033A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography Electrospray (ionisation) Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-FD</t>
+  </si>
+  <si>
+    <t>F022A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with Fluorescent Detection</t>
+  </si>
+  <si>
+    <t>HPLC-HG-AFS</t>
+  </si>
+  <si>
+    <t>F035A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography hydride generation atomic fluorescence  spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-HG-ETAAS</t>
+  </si>
+  <si>
+    <t>F157A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography hydride generation electrothermal atomic absorption spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-HG-ICP-AES</t>
+  </si>
+  <si>
+    <t>F159A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography hydride generation inductively coupled plasma atomic emission spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-HG-ICP-MS</t>
+  </si>
+  <si>
+    <t>F032A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography hydride generation inductively coupled plasma mass spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-ICP-AES</t>
+  </si>
+  <si>
+    <t>F158A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography inductively coupled plasma atomic emission spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-ICP-MS</t>
+  </si>
+  <si>
+    <t>F029A</t>
+  </si>
+  <si>
+    <t>High performance liquid chromatography inductively coupled plasma mass spectrometry</t>
+  </si>
+  <si>
+    <t>HPLC-LC hyphenated methods</t>
+  </si>
+  <si>
+    <t>F025A</t>
+  </si>
+  <si>
+    <t>HPLC-LC highphenated to element spectroscopy (HPLC-ICPMS, HPLC-Decomposition-HG-AAS, HPLC-Decomposition-HG-AFS, HPLC-HG-ICPMS, HPLC-ESMS, HPLC,HG-AFS, HPLC-HG-AAS, etc.).</t>
+  </si>
+  <si>
+    <t>HPLC-RI</t>
+  </si>
+  <si>
+    <t>F020A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with Refractive Index Detection</t>
+  </si>
+  <si>
+    <t>HPLC-UV</t>
+  </si>
+  <si>
+    <t>F021A</t>
+  </si>
+  <si>
+    <t>High Performance Liquid Chromatography with UV Detection</t>
+  </si>
+  <si>
+    <t>HRGC-HRMS</t>
+  </si>
+  <si>
+    <t>F048A</t>
+  </si>
+  <si>
+    <t>High Resolution Gas chromatography High Resolution Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>F174A</t>
+  </si>
+  <si>
+    <t>Static headspace extraction</t>
+  </si>
+  <si>
+    <t>HS-SPME</t>
+  </si>
+  <si>
+    <t>F178A</t>
+  </si>
+  <si>
+    <t>head space - solid phase micro extraction</t>
+  </si>
+  <si>
+    <t>IC hyphenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>F167A</t>
+  </si>
+  <si>
+    <t>Ion chromatography hypenated to element spectrometry</t>
+  </si>
+  <si>
+    <t>IC-AAS</t>
+  </si>
+  <si>
+    <t>F169A</t>
+  </si>
+  <si>
+    <t>Ion chromatography Atomic Absorption Spectrometry</t>
+  </si>
+  <si>
+    <t>IC-HG-AFS</t>
+  </si>
+  <si>
+    <t>F170A</t>
+  </si>
+  <si>
+    <t>Ion Chromatography Hydride Generation Atomic Fluorescence Spectrometry</t>
+  </si>
+  <si>
+    <t>IC-ICP-MS</t>
+  </si>
+  <si>
+    <t>F168A</t>
+  </si>
+  <si>
+    <t>Ion Chromatography Inductively Coupled Plasma Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>ICP-AES</t>
+  </si>
+  <si>
+    <t>F057A</t>
+  </si>
+  <si>
+    <t>Inductively coupled plasma atomic emission spectroscopy</t>
+  </si>
+  <si>
+    <t>ICP-HR-MS</t>
+  </si>
+  <si>
+    <t>F154A</t>
+  </si>
+  <si>
+    <t>Idcutively coupled plasma high resolution mass spectrometry</t>
+  </si>
+  <si>
+    <t>ICP-LR-MS</t>
+  </si>
+  <si>
+    <t>F153A</t>
+  </si>
+  <si>
+    <t>Idcutively coupled plasma low resolution mass spectrometry</t>
+  </si>
+  <si>
+    <t>ICP-MS</t>
+  </si>
+  <si>
+    <t>F064A</t>
+  </si>
+  <si>
+    <t>Inductively coupled plasma mass spectrometry</t>
+  </si>
+  <si>
+    <t>Immunochemical tests</t>
+  </si>
+  <si>
+    <t>F077A</t>
+  </si>
+  <si>
+    <t>Applies to e.g. immunoelectrophoresis</t>
+  </si>
+  <si>
+    <t>Indirect Immunofluorescent Antibody test (IFAT)</t>
+  </si>
+  <si>
+    <t>F121A</t>
+  </si>
+  <si>
+    <t>A form of fluorescent antibody technique using antigen-antibody complex labeled with flourescein-conjugated anti-immunoglobulin antibody</t>
+  </si>
+  <si>
+    <t>Intestinal Scrapping Technique</t>
+  </si>
+  <si>
+    <t>F181A</t>
+  </si>
+  <si>
+    <t>Hofer S, Gloor S, Muller U, Mathis A, Hegglin D, Deplazes P, 2000</t>
+  </si>
+  <si>
+    <t>IR and Raman Spectroscopy</t>
+  </si>
+  <si>
+    <t>F010A</t>
+  </si>
+  <si>
+    <t>Lateral flow tests</t>
+  </si>
+  <si>
+    <t>F084A</t>
+  </si>
+  <si>
+    <t>LC-HR-MS</t>
+  </si>
+  <si>
+    <t>F129A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with High Resolution Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-ITMS</t>
+  </si>
+  <si>
+    <t>F131A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with Ion Trap Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-LR-MS</t>
+  </si>
+  <si>
+    <t>F130A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with Low Resolution Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>F026A</t>
+  </si>
+  <si>
+    <t>Liquid Chromography Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-MS (quadrupole)</t>
+  </si>
+  <si>
+    <t>F028A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography Single Quadrupole Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-MS-MS</t>
+  </si>
+  <si>
+    <t>F027A</t>
+  </si>
+  <si>
+    <t>Liquid Chromography Tandem Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-MS-MS (QqQ)</t>
+  </si>
+  <si>
+    <t>F034A</t>
+  </si>
+  <si>
+    <t>Liquid Chromography Tandem Quadrupole Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-orbitrap-MS</t>
+  </si>
+  <si>
+    <t>F133A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with orbitrap detection</t>
+  </si>
+  <si>
+    <t>LC-Q-Trap-MS</t>
+  </si>
+  <si>
+    <t>F136A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with Quadrupole-Linear-Ion-Tap Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-QTOF-MS</t>
+  </si>
+  <si>
+    <t>F137A</t>
+  </si>
+  <si>
+    <t>Liquid Chromography Quadrupole-Time-of-Flight Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>LC-TOF-MS</t>
+  </si>
+  <si>
+    <t>F134A</t>
+  </si>
+  <si>
+    <t>Liquid Chromatography with Time-of-Flight Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>liquid injection</t>
+  </si>
+  <si>
+    <t>F173A</t>
+  </si>
+  <si>
+    <t>Luminescense based tests</t>
+  </si>
+  <si>
+    <t>F094A</t>
+  </si>
+  <si>
+    <t>Tests based on luminescense measurements</t>
+  </si>
+  <si>
+    <t>MALDI-TOFMS</t>
+  </si>
+  <si>
+    <t>F065A</t>
+  </si>
+  <si>
+    <t>Matrix-assisted laser desorption ionization time-of-flight mass spectrometry</t>
+  </si>
+  <si>
+    <t>Mass Spectroscopy and hyphenated methods without chromatography</t>
+  </si>
+  <si>
+    <t>F063A</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>F108A</t>
+  </si>
+  <si>
+    <t>Mouse bioassay</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>F081A</t>
+  </si>
+  <si>
+    <t>Magnetic Immunoassay Tests</t>
+  </si>
+  <si>
+    <t>Microbiological special tests</t>
+  </si>
+  <si>
+    <t>F101A</t>
+  </si>
+  <si>
+    <t>Applies to e.g. Keimdiff, Salm test, etc.</t>
+  </si>
+  <si>
     <t>Microbiological standard tests</t>
   </si>
   <si>
@@ -1401,6 +1137,27 @@
     <t>Applies to e.g. MPN</t>
   </si>
   <si>
+    <t>Microbiological tests</t>
+  </si>
+  <si>
+    <t>F099A</t>
+  </si>
+  <si>
+    <t>Microscopical and histometrical tests</t>
+  </si>
+  <si>
+    <t>F095A</t>
+  </si>
+  <si>
+    <t>Microscopy-PCR RNAsn U1</t>
+  </si>
+  <si>
+    <t>F185A</t>
+  </si>
+  <si>
+    <t>Mathis A, Deplazes P, Eckert J, 1996.</t>
+  </si>
+  <si>
     <t>Modified Sedimentation and Counting Technique</t>
   </si>
   <si>
@@ -1410,31 +1167,67 @@
     <t>Umhang G, Woronoff-Rhen N, Combes B, Boué F, 2011.</t>
   </si>
   <si>
-    <t>Intestinal Scrapping Technique</t>
-  </si>
-  <si>
-    <t>F181A</t>
-  </si>
-  <si>
-    <t>Hofer S, Gloor S, Muller U, Mathis A, Hegglin D, Deplazes P, 2000</t>
-  </si>
-  <si>
-    <t>Shaking in a Vessel Technique</t>
-  </si>
-  <si>
-    <t>F182A</t>
-  </si>
-  <si>
-    <t>Duscher G, Prosl H, Joachim A, 2005.</t>
-  </si>
-  <si>
-    <t>Coproantigen ELISA</t>
-  </si>
-  <si>
-    <t>F183A</t>
-  </si>
-  <si>
-    <t>Deplazes P, Alther P, Tanner I, Thompson RCA, Eckert J, 1999.</t>
+    <t>Molecular biological tests</t>
+  </si>
+  <si>
+    <t>F085A</t>
+  </si>
+  <si>
+    <t>Morphological identification</t>
+  </si>
+  <si>
+    <t>F120A</t>
+  </si>
+  <si>
+    <t>Morphological identification for insect samples</t>
+  </si>
+  <si>
+    <t>Nephelometry</t>
+  </si>
+  <si>
+    <t>F083A</t>
+  </si>
+  <si>
+    <t>Northern blot</t>
+  </si>
+  <si>
+    <t>F074A</t>
+  </si>
+  <si>
+    <t>for RNA detection</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance (NMR)</t>
+  </si>
+  <si>
+    <t>F061A</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance (NMR) and Electron Spin Resonance (ESR) spectroscopy</t>
+  </si>
+  <si>
+    <t>F060A</t>
+  </si>
+  <si>
+    <t>Organoleptic (sensoric) tests of food</t>
+  </si>
+  <si>
+    <t>F002A</t>
+  </si>
+  <si>
+    <t>Applies to e.g. smelling, tasting, etc.… - not usual for "chemical occurances" as contaminants or pesticde residues.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>F086A</t>
+  </si>
+  <si>
+    <t>polymerase chain reaction</t>
   </si>
   <si>
     <t>PCR  RNAsn U1</t>
@@ -1443,13 +1236,13 @@
     <t>F184A</t>
   </si>
   <si>
-    <t>Microscopy-PCR RNAsn U1</t>
-  </si>
-  <si>
-    <t>F185A</t>
-  </si>
-  <si>
-    <t>Mathis A, Deplazes P, Eckert J, 1996.</t>
+    <t>PCR Cest1-Cest2 NAD1</t>
+  </si>
+  <si>
+    <t>F187A</t>
+  </si>
+  <si>
+    <t>Trachsel D, Deplazes P, Mathis A, 2007.</t>
   </si>
   <si>
     <t>PCR H15-H17 12S rRNA</t>
@@ -1462,13 +1255,103 @@
 </t>
   </si>
   <si>
-    <t>PCR Cest1-Cest2 NAD1</t>
-  </si>
-  <si>
-    <t>F187A</t>
-  </si>
-  <si>
-    <t>Trachsel D, Deplazes P, Mathis A, 2007.</t>
+    <t>PCR-ELISA</t>
+  </si>
+  <si>
+    <t>F088A</t>
+  </si>
+  <si>
+    <t>polymerase chain reaction coupled to ELISA detection</t>
+  </si>
+  <si>
+    <t>Physical tests</t>
+  </si>
+  <si>
+    <t>F006A</t>
+  </si>
+  <si>
+    <t>Quantifying an analyte by measuring physical properties i.e. refractometry, densitometry, etc. (does not apply to colorimetry, photometry and spectroscopy).</t>
+  </si>
+  <si>
+    <t>PP2A</t>
+  </si>
+  <si>
+    <t>F114A</t>
+  </si>
+  <si>
+    <t>Protein phosphatase inhibition test</t>
+  </si>
+  <si>
+    <t>QPCR</t>
+  </si>
+  <si>
+    <t>F087A</t>
+  </si>
+  <si>
+    <t>real time polymerase chain reaction used for DNA quantification</t>
+  </si>
+  <si>
+    <t>Qualitative tests</t>
+  </si>
+  <si>
+    <t>F007A</t>
+  </si>
+  <si>
+    <t>Tests based on a chemical or enzimatic reaction with reagents and trough the observation of the results of the reaction like precipitation or change of colour, etc. Only approximative quantification is possible.</t>
+  </si>
+  <si>
+    <t>Radioactivity based tests</t>
+  </si>
+  <si>
+    <t>F093A</t>
+  </si>
+  <si>
+    <t>Tests based on radioactivity and spectroscopy</t>
+  </si>
+  <si>
+    <t>Radiochemical tests</t>
+  </si>
+  <si>
+    <t>F091A</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>F110A</t>
+  </si>
+  <si>
+    <t>Rat bioassay</t>
+  </si>
+  <si>
+    <t>Receptor based tests</t>
+  </si>
+  <si>
+    <t>F116A</t>
+  </si>
+  <si>
+    <t>RIA</t>
+  </si>
+  <si>
+    <t>F078A</t>
+  </si>
+  <si>
+    <t>Radio Immunoassay Tests</t>
+  </si>
+  <si>
+    <t>Sample introduction</t>
+  </si>
+  <si>
+    <t>F172A</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>F179A</t>
+  </si>
+  <si>
+    <t>Stir bar sorpitive extraction</t>
   </si>
   <si>
     <t>Sedimentation and Counting Technique</t>
@@ -1481,7 +1364,124 @@
 </t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Shaking in a Vessel Technique</t>
+  </si>
+  <si>
+    <t>F182A</t>
+  </si>
+  <si>
+    <t>Duscher G, Prosl H, Joachim A, 2005.</t>
+  </si>
+  <si>
+    <t>Southwestern blotting</t>
+  </si>
+  <si>
+    <t>F075A</t>
+  </si>
+  <si>
+    <t>for detection of DNA-binding proteins</t>
+  </si>
+  <si>
+    <t>Special tests</t>
+  </si>
+  <si>
+    <t>F098A</t>
+  </si>
+  <si>
+    <t>SPME</t>
+  </si>
+  <si>
+    <t>F177A</t>
+  </si>
+  <si>
+    <t>solid phase micro extraction</t>
+  </si>
+  <si>
+    <t>SPR-biosensor</t>
+  </si>
+  <si>
+    <t>F119A</t>
+  </si>
+  <si>
+    <t>Surface plasmon resonance</t>
+  </si>
+  <si>
+    <t>SSMS</t>
+  </si>
+  <si>
+    <t>F068A</t>
+  </si>
+  <si>
+    <t>Spark source mass spectrometry</t>
+  </si>
+  <si>
+    <t>Standard Chromatographic tests (paper-, thin layer- and column chromatography)</t>
+  </si>
+  <si>
+    <t>F016A</t>
+  </si>
+  <si>
+    <t>Applies to e.g. TLC</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>F176A</t>
+  </si>
+  <si>
+    <t>Thermo desorption</t>
+  </si>
+  <si>
+    <t>TIMS</t>
+  </si>
+  <si>
+    <t>F067A</t>
+  </si>
+  <si>
+    <t>Thermal ionization-mass spectrometry</t>
+  </si>
+  <si>
+    <t>Traditional analytical techniques (wet chemical tests)</t>
+  </si>
+  <si>
+    <t>F003A</t>
+  </si>
+  <si>
+    <t>Applies to e.g. reacting with reagents and measuring the results of the reaction like precipitation or change of colour, etc (does not apply to colorimetry, photometry and spectroscopy).</t>
+  </si>
+  <si>
+    <t>Turbidimetry</t>
+  </si>
+  <si>
+    <t>F122A</t>
+  </si>
+  <si>
+    <t>A method for determining the concentration of a substance in a solution by measuring the loss in intensity of a light beam through a solution that contains suspended particulate matter.</t>
+  </si>
+  <si>
+    <t>UV-VIS spectroscopy (photometry)</t>
+  </si>
+  <si>
+    <t>F009A</t>
+  </si>
+  <si>
+    <t>Volumetric tests</t>
+  </si>
+  <si>
+    <t>F005A</t>
+  </si>
+  <si>
+    <t>A reagent (called titrator) of a known concentration (a standard solution) and volume is used to react with a solution of the analyte (called titrand), whose concentration is not known e.g. acidimetry, chelatometry, etc.</t>
+  </si>
+  <si>
+    <t>Western blot</t>
+  </si>
+  <si>
+    <t>F072A</t>
+  </si>
+  <si>
+    <t>for protein detection</t>
   </si>
 </sst>
 </file>
@@ -1584,952 +1584,956 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10"/>
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11"/>
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19"/>
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21"/>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61"/>
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62"/>
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63"/>
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64"/>
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70"/>
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71"/>
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" t="s">
-        <v>213</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" t="s">
-        <v>222</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83"/>
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84"/>
+        <v>232</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85"/>
+        <v>235</v>
+      </c>
+      <c r="C85" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86"/>
+        <v>238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90"/>
+        <v>250</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" t="s">
         <v>254</v>
       </c>
-      <c r="B91" t="s">
-        <v>255</v>
-      </c>
-      <c r="C91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" t="s">
         <v>256</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>257</v>
-      </c>
-      <c r="C92" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
         <v>259</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>260</v>
-      </c>
-      <c r="C93" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
         <v>262</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>263</v>
       </c>
-      <c r="C94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2538,548 +2542,546 @@
       <c r="B95" t="s">
         <v>265</v>
       </c>
-      <c r="C95"/>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96"/>
+        <v>268</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
-      </c>
-      <c r="C97"/>
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98"/>
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100"/>
+        <v>280</v>
+      </c>
+      <c r="C100" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
-      </c>
-      <c r="C101"/>
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
-      </c>
-      <c r="C102"/>
+        <v>286</v>
+      </c>
+      <c r="C102" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105"/>
+        <v>295</v>
+      </c>
+      <c r="C105" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C108"/>
+        <v>304</v>
+      </c>
+      <c r="C108" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
-      </c>
-      <c r="C109"/>
+        <v>307</v>
+      </c>
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
-      </c>
-      <c r="C110"/>
+        <v>310</v>
+      </c>
+      <c r="C110" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C111" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
-      </c>
-      <c r="C112" t="s">
-        <v>305</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" t="s">
-        <v>308</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C115" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C119" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B122" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C123" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B124" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B125" t="s">
-        <v>343</v>
-      </c>
-      <c r="C125" t="s">
-        <v>344</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C126" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B128" t="s">
-        <v>352</v>
-      </c>
-      <c r="C128" t="s">
-        <v>353</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C132" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s">
-        <v>367</v>
-      </c>
-      <c r="C133" t="s">
-        <v>368</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
-      </c>
-      <c r="C134" t="s">
-        <v>371</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
-      </c>
-      <c r="C137" t="s">
-        <v>380</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>385</v>
-      </c>
-      <c r="C139" t="s">
-        <v>384</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B140" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
-      </c>
-      <c r="C141" t="s">
-        <v>391</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
-      </c>
-      <c r="C142" t="s">
-        <v>394</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B143" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
-      </c>
-      <c r="C144" t="s">
-        <v>400</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
-      </c>
-      <c r="C146" t="s">
         <v>406</v>
       </c>
+      <c r="C146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3185,18 +3187,18 @@
       <c r="B156" t="s">
         <v>434</v>
       </c>
-      <c r="C156"/>
+      <c r="C156" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
-      </c>
-      <c r="C157" t="s">
         <v>437</v>
       </c>
+      <c r="C157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -3216,181 +3218,179 @@
       <c r="B159" t="s">
         <v>442</v>
       </c>
-      <c r="C159" t="s">
-        <v>443</v>
-      </c>
+      <c r="C159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" t="s">
         <v>444</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>445</v>
-      </c>
-      <c r="C160" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>446</v>
+      </c>
+      <c r="B161" t="s">
         <v>447</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>448</v>
-      </c>
-      <c r="C161" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>449</v>
+      </c>
+      <c r="B162" t="s">
         <v>450</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>451</v>
-      </c>
-      <c r="C162" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" t="s">
         <v>453</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>454</v>
-      </c>
-      <c r="C163" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>455</v>
+      </c>
+      <c r="B164" t="s">
         <v>456</v>
       </c>
-      <c r="B164" t="s">
-        <v>457</v>
-      </c>
-      <c r="C164" t="s">
-        <v>458</v>
-      </c>
+      <c r="C164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>457</v>
+      </c>
+      <c r="B165" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" t="s">
         <v>459</v>
-      </c>
-      <c r="B165" t="s">
-        <v>460</v>
-      </c>
-      <c r="C165" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>460</v>
+      </c>
+      <c r="B166" t="s">
+        <v>461</v>
+      </c>
+      <c r="C166" t="s">
         <v>462</v>
-      </c>
-      <c r="B166" t="s">
-        <v>463</v>
-      </c>
-      <c r="C166" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" t="s">
+        <v>464</v>
+      </c>
+      <c r="C167" t="s">
         <v>465</v>
-      </c>
-      <c r="B167" t="s">
-        <v>466</v>
-      </c>
-      <c r="C167" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>466</v>
+      </c>
+      <c r="B168" t="s">
+        <v>467</v>
+      </c>
+      <c r="C168" t="s">
         <v>468</v>
-      </c>
-      <c r="B168" t="s">
-        <v>469</v>
-      </c>
-      <c r="C168" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>469</v>
+      </c>
+      <c r="B169" t="s">
+        <v>470</v>
+      </c>
+      <c r="C169" t="s">
         <v>471</v>
-      </c>
-      <c r="B169" t="s">
-        <v>472</v>
-      </c>
-      <c r="C169" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>472</v>
+      </c>
+      <c r="B170" t="s">
+        <v>473</v>
+      </c>
+      <c r="C170" t="s">
         <v>474</v>
       </c>
-      <c r="B170" t="s">
-        <v>475</v>
-      </c>
-      <c r="C170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>475</v>
+      </c>
+      <c r="B171" t="s">
         <v>476</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>477</v>
-      </c>
-      <c r="C171" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>478</v>
+      </c>
+      <c r="B172" t="s">
         <v>479</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>480</v>
-      </c>
-      <c r="C172" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>481</v>
+      </c>
+      <c r="B173" t="s">
         <v>482</v>
       </c>
-      <c r="B173" t="s">
-        <v>483</v>
-      </c>
-      <c r="C173" t="s">
-        <v>484</v>
-      </c>
+      <c r="C173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>483</v>
+      </c>
+      <c r="B174" t="s">
+        <v>484</v>
+      </c>
+      <c r="C174" t="s">
         <v>485</v>
-      </c>
-      <c r="B174" t="s">
-        <v>486</v>
-      </c>
-      <c r="C174" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>486</v>
+      </c>
+      <c r="B175" t="s">
+        <v>487</v>
+      </c>
+      <c r="C175" t="s">
         <v>488</v>
       </c>
-      <c r="B175" t="s">
-        <v>488</v>
-      </c>
-      <c r="C175"/>
     </row>
     <row r="176">
       <c r="A176"/>
